--- a/resources/rq_1_literature_review_table.xlsx
+++ b/resources/rq_1_literature_review_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F20247-A0DC-4E62-A827-851DFF964334}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +45,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[5,18,79,19,22,80,81,82, 73,83,84,85]</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -59,9 +57,6 @@
     <t>Analyze fraud cases which are similar to the current case detected by the fraud detection system.</t>
   </si>
   <si>
-    <t>[86,81,85]</t>
-  </si>
-  <si>
     <t>Analyze Contrast Between Cases</t>
   </si>
   <si>
@@ -71,9 +66,6 @@
     <t>Detect differences between a legitimate and a fraudulent transaction.</t>
   </si>
   <si>
-    <t>[87,81,72,88,89,74]</t>
-  </si>
-  <si>
     <t>Analyze Cases in Clusters</t>
   </si>
   <si>
@@ -101,9 +93,6 @@
     <t>Analyze the common distribution of attributes, which represent the know pattern and behavior of users. This can be represented by averages, minimum and maximum thresholders for attributes.</t>
   </si>
   <si>
-    <t>[18,50,81,82,100,101,90,83, 89,96,85]</t>
-  </si>
-  <si>
     <t>Analyze Impact of Attributes</t>
   </si>
   <si>
@@ -149,9 +138,6 @@
     <t>Detailed observation on the decision path made by a fraud detection system, such as rules and attributes associated with the rules to provide predictions.</t>
   </si>
   <si>
-    <t>[47, 25]</t>
-  </si>
-  <si>
     <t>Analyze Ranking of Subjects</t>
   </si>
   <si>
@@ -161,9 +147,6 @@
     <t xml:space="preserve">Visualize the most important transactions and attributes to be analyzed, given the time constraints fraud experts have in their scenarios. </t>
   </si>
   <si>
-    <t>[72,95]</t>
-  </si>
-  <si>
     <t>Analyze Decision in Natural Language</t>
   </si>
   <si>
@@ -173,9 +156,6 @@
     <t>Analyze rationales on the reasons for predictions, such as textual descriptions of the reasons for a transaction being classified as fraudulent.</t>
   </si>
   <si>
-    <t>[17,86,94,96,85]</t>
-  </si>
-  <si>
     <t>Analyze Confidence of Decision</t>
   </si>
   <si>
@@ -185,28 +165,49 @@
     <t>Observe the confidence of the system in predicting and detecting frauds;</t>
   </si>
   <si>
-    <t>[46,47,25,17,18,3,80,82, 73, 90,91,92,93,83, 94,95,96,74,85]</t>
-  </si>
-  <si>
-    <t>[46,17,19,71,97,93,98,94,84,95,96,99,74]</t>
-  </si>
-  <si>
-    <t>[46,9,19,102, 103,71,97,82,90,91, 72,104,105,106,107,108,98,109,110,94,95,99, 74]</t>
-  </si>
-  <si>
-    <t>[5,9,86,82, 100, 101,91,92,111,112,113,114,88,94,74,85]</t>
-  </si>
-  <si>
-    <t>[46,25,5,9,49,103,71,97,81,73,90, 91,72,113,115,109,110,94,84,95,74]</t>
-  </si>
-  <si>
-    <t>[9,49,37,82,90,92,116,104,105,113,114, 74]</t>
+    <t>[5,17,19,18,21,307,254,129, 76,200,191,283]</t>
+  </si>
+  <si>
+    <t>[125,254,283]</t>
+  </si>
+  <si>
+    <t>[276,254,75,232,189,77]</t>
+  </si>
+  <si>
+    <t>[44,45,28,16,17,3,307,129,215, 187,244,20,210,200, 215,133,261,77,283]</t>
+  </si>
+  <si>
+    <t>[44,16,18,50,51,210,169,215,191,133,261,216,77]</t>
+  </si>
+  <si>
+    <t>[17,48,254,129,253,143,187,200, 189,261,283]</t>
+  </si>
+  <si>
+    <t>[44,7,18,158, 277,50,51,129,187,244, 75,287,148,231,286,138,169,290,275,215,133,216,77]</t>
+  </si>
+  <si>
+    <t>[5,7,125,129,253, 143,244,20,197,252,149,269,232,215,77,283]</t>
+  </si>
+  <si>
+    <t>[44,28,5,7,47,277,50,51,254,76,187, 244,75,149,298,290,275,215,191,133,77]</t>
+  </si>
+  <si>
+    <t>[7,47,38,129,187,20,280,287,148,149,269, 77]</t>
+  </si>
+  <si>
+    <t>[45, 28]</t>
+  </si>
+  <si>
+    <t>[75,133]</t>
+  </si>
+  <si>
+    <t>[16,125,215,261,283]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,17 +346,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -639,20 +640,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
     <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,368 +674,368 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="156.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4">
         <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6">
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6">
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="6">
         <v>16</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6">
         <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6">
         <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="216.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4">
         <v>2</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B28" s="4">
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
